--- a/prediction/predictions.xlsx
+++ b/prediction/predictions.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20190298\Documents\GitHub\business-analytics-3\prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B39E20F-159B-4329-BE85-F49AB47D15CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2328" yWindow="2400" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RUL</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +95,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +181,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +233,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,19 +426,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -393,7 +451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -401,7 +459,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -409,7 +467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -417,7 +475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -425,7 +483,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -433,7 +491,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -441,7 +499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -449,7 +507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -457,7 +515,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -465,7 +523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -473,7 +531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -481,7 +539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -489,7 +547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -497,7 +555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -505,7 +563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -513,7 +571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -521,7 +579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -529,7 +587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -537,7 +595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -545,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -553,7 +611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -561,7 +619,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -569,7 +627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -577,7 +635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -585,7 +643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -593,7 +651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -601,7 +659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -609,7 +667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -617,7 +675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -625,7 +683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -633,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -641,7 +699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -649,7 +707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -657,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -665,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -673,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -681,7 +739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -689,7 +747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -697,7 +755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -705,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -713,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -721,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -729,7 +787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -737,7 +795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -745,7 +803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -753,7 +811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -761,7 +819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -769,7 +827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -777,7 +835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -785,7 +843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -793,7 +851,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -801,7 +859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -809,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -817,7 +875,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -825,7 +883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -833,7 +891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -841,7 +899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -849,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -857,7 +915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -865,7 +923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -873,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -881,7 +939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -889,7 +947,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -897,7 +955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -905,7 +963,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -913,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -921,7 +979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -929,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -937,7 +995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -945,7 +1003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -953,7 +1011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -961,7 +1019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -969,7 +1027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -977,7 +1035,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -985,7 +1043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1001,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1009,7 +1067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1017,7 +1075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1025,7 +1083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1033,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1041,7 +1099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1049,7 +1107,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1057,7 +1115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1065,7 +1123,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1073,7 +1131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1081,7 +1139,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1089,7 +1147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1097,7 +1155,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1105,7 +1163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1113,7 +1171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1121,7 +1179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1129,7 +1187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1137,7 +1195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1145,7 +1203,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1153,7 +1211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1161,7 +1219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1169,7 +1227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1177,7 +1235,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
